--- a/SampleInputFiles/sample_InProgress_argentina.xlsx
+++ b/SampleInputFiles/sample_InProgress_argentina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishn\OneDrive\Desktop\MyEngineering\golocalrefactor\SampleInputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33605FFF-8AB3-4D9B-99F1-55EAD7CEBC00}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E57E19-9002-4518-A334-885CE9C0B602}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="0" windowWidth="24973" windowHeight="10153" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3733" yWindow="0" windowWidth="24973" windowHeight="10153" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roadmap" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="111">
   <si>
     <t>Roadmap - Summary</t>
   </si>
@@ -325,9 +325,6 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>Cape Town (CPT20)</t>
-  </si>
-  <si>
     <t>Workloads</t>
   </si>
   <si>
@@ -383,16 +380,13 @@
     <t>45 Days</t>
   </si>
   <si>
-    <t>Johannesburg (JNB20)</t>
-  </si>
-  <si>
-    <t>Johannesburg (JNB21)</t>
-  </si>
-  <si>
     <t>InProgress</t>
   </si>
   <si>
     <t>Argentina</t>
+  </si>
+  <si>
+    <t>WhiteSpace Ready</t>
   </si>
 </sst>
 </file>
@@ -991,6 +985,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1050,9 +1047,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1334,60 +1328,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:16" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
       <c r="O1" s="53"/>
-    </row>
-    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.5">
-      <c r="A2" s="54" t="s">
+      <c r="P1" s="54"/>
+    </row>
+    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.5">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
       <c r="I2" s="57"/>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="58"/>
+      <c r="K2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
+      <c r="L2" s="60"/>
       <c r="M2" s="60"/>
-      <c r="N2" s="61" t="s">
+      <c r="N2" s="61"/>
+      <c r="O2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="62"/>
-    </row>
-    <row r="3" spans="1:15" ht="43" x14ac:dyDescent="0.5">
-      <c r="A3" s="54"/>
+      <c r="P2" s="63"/>
+    </row>
+    <row r="3" spans="1:16" ht="43" x14ac:dyDescent="0.5">
+      <c r="A3" s="55"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1401,39 +1397,42 @@
         <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:16" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A4" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>18</v>
@@ -1447,14 +1446,14 @@
       <c r="E4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="71">
+      <c r="F4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="51">
         <v>41204</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="H4" s="10">
-        <v>41204</v>
       </c>
       <c r="I4" s="10">
         <v>41204</v>
@@ -1462,29 +1461,32 @@
       <c r="J4" s="10">
         <v>41204</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10">
+        <v>41204</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="M4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="N4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="O4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="P4" s="15" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1522,10 +1524,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C2" s="17">
         <v>10000</v>
@@ -1550,7 +1552,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1562,8 +1564,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A1" s="63" t="s">
-        <v>112</v>
+      <c r="A1" s="64" t="s">
+        <v>109</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>31</v>
@@ -1573,8 +1575,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="65" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="20" t="s">
@@ -1585,8 +1587,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="21" t="s">
         <v>33</v>
       </c>
@@ -1595,8 +1597,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="21" t="s">
         <v>34</v>
       </c>
@@ -1605,8 +1607,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A5" s="63"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="64"/>
+      <c r="B5" s="65" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -1617,8 +1619,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A6" s="63"/>
-      <c r="B6" s="64"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="21" t="s">
         <v>36</v>
       </c>
@@ -1627,7 +1629,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A7" s="63"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="23" t="s">
         <v>37</v>
       </c>
@@ -1637,8 +1639,8 @@
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A8" s="63"/>
-      <c r="B8" s="65" t="s">
+      <c r="A8" s="64"/>
+      <c r="B8" s="66" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="17" t="s">
@@ -1647,32 +1649,32 @@
       <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A9" s="63"/>
-      <c r="B9" s="65"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="17" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A10" s="63"/>
-      <c r="B10" s="65"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A11" s="63"/>
-      <c r="B11" s="65"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="17" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A12" s="63"/>
-      <c r="B12" s="65" t="s">
+      <c r="A12" s="64"/>
+      <c r="B12" s="66" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="17" t="s">
@@ -1681,8 +1683,8 @@
       <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A13" s="63"/>
-      <c r="B13" s="65"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="25" t="s">
         <v>45</v>
       </c>
@@ -1743,7 +1745,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -1775,7 +1777,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="67"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="29" t="s">
         <v>59</v>
       </c>
@@ -1805,7 +1807,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="67"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="29" t="s">
         <v>60</v>
       </c>
@@ -1835,7 +1837,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="72" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="67"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="29" t="s">
         <v>61</v>
       </c>
@@ -1865,7 +1867,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="57.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="67"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="29" t="s">
         <v>63</v>
       </c>
@@ -1895,7 +1897,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="67"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="29" t="s">
         <v>65</v>
       </c>
@@ -1925,7 +1927,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="67"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="29" t="s">
         <v>67</v>
       </c>
@@ -1955,7 +1957,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="68"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="35" t="s">
         <v>17</v>
       </c>
@@ -1985,7 +1987,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="67" t="s">
         <v>70</v>
       </c>
       <c r="B10" s="29" t="s">
@@ -2017,7 +2019,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="67"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="29" t="s">
         <v>71</v>
       </c>
@@ -2047,7 +2049,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="67"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="29" t="s">
         <v>73</v>
       </c>
@@ -2077,7 +2079,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="72" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="67"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="29" t="s">
         <v>61</v>
       </c>
@@ -2107,7 +2109,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="57.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="67"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="29" t="s">
         <v>63</v>
       </c>
@@ -2137,7 +2139,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="67"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="29" t="s">
         <v>65</v>
       </c>
@@ -2167,7 +2169,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="67"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="29" t="s">
         <v>67</v>
       </c>
@@ -2197,7 +2199,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="68"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="35" t="s">
         <v>17</v>
       </c>
@@ -2227,7 +2229,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="67" t="s">
         <v>76</v>
       </c>
       <c r="B18" s="29" t="s">
@@ -2259,7 +2261,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="67"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="29" t="s">
         <v>77</v>
       </c>
@@ -2289,7 +2291,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="67"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="29" t="s">
         <v>73</v>
       </c>
@@ -2319,7 +2321,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="72" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="67"/>
+      <c r="A21" s="68"/>
       <c r="B21" s="29" t="s">
         <v>61</v>
       </c>
@@ -2349,7 +2351,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="57.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="67"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="29" t="s">
         <v>63</v>
       </c>
@@ -2379,7 +2381,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="67"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="29" t="s">
         <v>65</v>
       </c>
@@ -2409,7 +2411,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="67"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="29" t="s">
         <v>67</v>
       </c>
@@ -2439,7 +2441,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="68"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="35" t="s">
         <v>17</v>
       </c>
@@ -2469,7 +2471,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="67" t="s">
         <v>82</v>
       </c>
       <c r="B26" s="29" t="s">
@@ -2501,7 +2503,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="72" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="67"/>
+      <c r="A27" s="68"/>
       <c r="B27" s="29" t="s">
         <v>61</v>
       </c>
@@ -2531,7 +2533,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="57.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="67"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="29" t="s">
         <v>63</v>
       </c>
@@ -2561,7 +2563,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="67"/>
+      <c r="A29" s="68"/>
       <c r="B29" s="29" t="s">
         <v>65</v>
       </c>
@@ -2591,7 +2593,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="69"/>
+      <c r="A30" s="70"/>
       <c r="B30" s="38" t="s">
         <v>17</v>
       </c>
@@ -2621,7 +2623,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="67" t="s">
         <v>89</v>
       </c>
       <c r="B31" s="29" t="s">
@@ -2653,7 +2655,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="72" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="67"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="29" t="s">
         <v>61</v>
       </c>
@@ -2683,7 +2685,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="57.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="67"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="29" t="s">
         <v>63</v>
       </c>
@@ -2713,7 +2715,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="67"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="29" t="s">
         <v>65</v>
       </c>
@@ -2743,7 +2745,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="69"/>
+      <c r="A35" s="70"/>
       <c r="B35" s="38" t="s">
         <v>17</v>
       </c>
@@ -2788,49 +2790,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46CF6CC-FED6-4037-BDB6-B1421048F8AA}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
+      <c r="A1" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:7" ht="86" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="C2" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="D2" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="E2" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" s="40" t="s">
         <v>96</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A3" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="19">
         <v>42370</v>
@@ -2842,7 +2844,7 @@
         <v>42006</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F3" s="43">
         <v>3</v>
@@ -2853,7 +2855,7 @@
     </row>
     <row r="4" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A4" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="19">
         <v>42370</v>
@@ -2865,7 +2867,7 @@
         <v>42006</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F4" s="43">
         <v>3</v>
@@ -2876,7 +2878,7 @@
     </row>
     <row r="5" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A5" s="41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="19">
         <v>42370</v>
@@ -2888,7 +2890,7 @@
         <v>42006</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" s="43">
         <v>3</v>
@@ -2899,7 +2901,7 @@
     </row>
     <row r="6" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A6" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="19">
         <v>42370</v>
@@ -2911,7 +2913,7 @@
         <v>42006</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" s="43">
         <v>3</v>
@@ -2922,7 +2924,7 @@
     </row>
     <row r="7" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A7" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="19">
         <v>42370</v>
@@ -2934,7 +2936,7 @@
         <v>42006</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="43">
         <v>3</v>
@@ -2945,7 +2947,7 @@
     </row>
     <row r="8" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A8" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="19">
         <v>42370</v>
@@ -2957,7 +2959,7 @@
         <v>42006</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" s="43">
         <v>3</v>
@@ -2968,7 +2970,7 @@
     </row>
     <row r="9" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A9" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="46" t="s">
         <v>22</v>
@@ -2980,13 +2982,13 @@
         <v>42006</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="48" t="s">
         <v>106</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.5">
@@ -3003,13 +3005,13 @@
         <v>42005</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F10" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="48" t="s">
         <v>106</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.5">
@@ -3026,52 +3028,52 @@
         <v>42005</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G11" s="48">
         <v>40544</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
+      <c r="A12" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
     </row>
     <row r="13" spans="1:7" ht="86" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="C13" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="D13" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="E13" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="F13" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="G13" s="40" t="s">
         <v>96</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A14" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" s="19">
         <v>42370</v>
@@ -3083,7 +3085,7 @@
         <v>42006</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F14" s="43">
         <v>3</v>
@@ -3094,7 +3096,7 @@
     </row>
     <row r="15" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A15" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" s="19">
         <v>42370</v>
@@ -3106,7 +3108,7 @@
         <v>42006</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F15" s="43">
         <v>3</v>
@@ -3117,7 +3119,7 @@
     </row>
     <row r="16" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A16" s="41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="19">
         <v>42370</v>
@@ -3129,7 +3131,7 @@
         <v>42006</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F16" s="43">
         <v>3</v>
@@ -3140,7 +3142,7 @@
     </row>
     <row r="17" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A17" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" s="19">
         <v>42370</v>
@@ -3152,7 +3154,7 @@
         <v>42006</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" s="43">
         <v>3</v>
@@ -3163,7 +3165,7 @@
     </row>
     <row r="18" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A18" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="19">
         <v>42370</v>
@@ -3175,7 +3177,7 @@
         <v>42006</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F18" s="43">
         <v>3</v>
@@ -3186,7 +3188,7 @@
     </row>
     <row r="19" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A19" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" s="19">
         <v>42370</v>
@@ -3198,7 +3200,7 @@
         <v>42006</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F19" s="43">
         <v>3</v>
@@ -3209,7 +3211,7 @@
     </row>
     <row r="20" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A20" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" s="46" t="s">
         <v>22</v>
@@ -3221,13 +3223,13 @@
         <v>42006</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F20" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="48" t="s">
         <v>106</v>
-      </c>
-      <c r="G20" s="48" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.5">
@@ -3244,13 +3246,13 @@
         <v>42005</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="48" t="s">
         <v>106</v>
-      </c>
-      <c r="G21" s="48" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.5">
@@ -3267,52 +3269,52 @@
         <v>42005</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F22" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G22" s="48">
         <v>40544</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
+      <c r="A23" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
     </row>
     <row r="24" spans="1:7" ht="86" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="C24" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="D24" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="E24" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="F24" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="G24" s="40" t="s">
         <v>96</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A25" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25" s="19">
         <v>42370</v>
@@ -3324,7 +3326,7 @@
         <v>42006</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F25" s="43">
         <v>3</v>
@@ -3335,7 +3337,7 @@
     </row>
     <row r="26" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A26" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B26" s="19">
         <v>42370</v>
@@ -3347,7 +3349,7 @@
         <v>42006</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F26" s="43">
         <v>3</v>
@@ -3358,7 +3360,7 @@
     </row>
     <row r="27" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A27" s="41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B27" s="19">
         <v>42370</v>
@@ -3370,7 +3372,7 @@
         <v>42006</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F27" s="43">
         <v>3</v>
@@ -3381,7 +3383,7 @@
     </row>
     <row r="28" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A28" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" s="19">
         <v>42370</v>
@@ -3393,7 +3395,7 @@
         <v>42006</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F28" s="43">
         <v>3</v>
@@ -3404,7 +3406,7 @@
     </row>
     <row r="29" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A29" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="19">
         <v>42370</v>
@@ -3416,7 +3418,7 @@
         <v>42006</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F29" s="43">
         <v>3</v>
@@ -3427,7 +3429,7 @@
     </row>
     <row r="30" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A30" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="19">
         <v>42370</v>
@@ -3439,7 +3441,7 @@
         <v>42006</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F30" s="43">
         <v>3</v>
@@ -3450,7 +3452,7 @@
     </row>
     <row r="31" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A31" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B31" s="46" t="s">
         <v>22</v>
@@ -3462,13 +3464,13 @@
         <v>42006</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F31" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="48" t="s">
         <v>106</v>
-      </c>
-      <c r="G31" s="48" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.5">
@@ -3485,13 +3487,13 @@
         <v>42005</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F32" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="48" t="s">
         <v>106</v>
-      </c>
-      <c r="G32" s="48" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.5">
@@ -3508,10 +3510,10 @@
         <v>42005</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F33" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G33" s="48">
         <v>40544</v>

--- a/SampleInputFiles/sample_InProgress_argentina.xlsx
+++ b/SampleInputFiles/sample_InProgress_argentina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishn\OneDrive\Desktop\MyEngineering\golocalrefactor\SampleInputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E57E19-9002-4518-A334-885CE9C0B602}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7623BA5B-7897-4C17-B5CF-CF3E8DF26012}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3733" yWindow="0" windowWidth="24973" windowHeight="10153" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4667" yWindow="0" windowWidth="24973" windowHeight="10153" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roadmap" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="115">
   <si>
     <t>Roadmap - Summary</t>
   </si>
@@ -388,6 +388,30 @@
   <si>
     <t>WhiteSpace Ready</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1/2/2015 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2/2/2019</t>
+    </r>
+  </si>
+  <si>
+    <t>Johannesburg (JNB20)</t>
+  </si>
+  <si>
+    <t>Cape Town (CPT20)</t>
+  </si>
+  <si>
+    <t>Johannesburg (JNB21)</t>
+  </si>
 </sst>
 </file>
 
@@ -399,7 +423,7 @@
     <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="167" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,6 +542,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -843,7 +874,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1047,6 +1078,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1552,7 +1586,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1628,13 +1662,13 @@
         <v>42006</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A7" s="64"/>
       <c r="B7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="22">
-        <v>42006</v>
+      <c r="C7" s="72" t="s">
+        <v>111</v>
       </c>
       <c r="D7" s="24"/>
     </row>
@@ -1699,6 +1733,7 @@
     <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2791,14 +2826,22 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="A23" sqref="A23:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="2" max="2" width="28.5859375" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="22.5859375" customWidth="1"/>
+    <col min="5" max="5" width="39.9375" customWidth="1"/>
+    <col min="6" max="6" width="51.52734375" customWidth="1"/>
+    <col min="7" max="7" width="93.703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="71" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -3039,7 +3082,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="71" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="B12" s="71"/>
       <c r="C12" s="71"/>
@@ -3280,7 +3323,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="71" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="B23" s="71"/>
       <c r="C23" s="71"/>

--- a/SampleInputFiles/sample_InProgress_argentina.xlsx
+++ b/SampleInputFiles/sample_InProgress_argentina.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishn\OneDrive\Desktop\MyEngineering\golocalrefactor\SampleInputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7623BA5B-7897-4C17-B5CF-CF3E8DF26012}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54109710-41CC-4938-8808-8F108787C092}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4667" yWindow="0" windowWidth="24973" windowHeight="10153" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-93" windowWidth="24853" windowHeight="14586" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roadmap" sheetId="1" r:id="rId1"/>
     <sheet name="Countries" sheetId="2" r:id="rId2"/>
     <sheet name="Argentina_Specific" sheetId="3" r:id="rId3"/>
-    <sheet name="Argentina_Wrkld" sheetId="4" r:id="rId4"/>
-    <sheet name="Argentina_MCIO" sheetId="5" r:id="rId5"/>
+    <sheet name="Argentina_MCIO" sheetId="5" r:id="rId4"/>
+    <sheet name="Argentina_Wrkld" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -404,13 +404,13 @@
     </r>
   </si>
   <si>
-    <t>Johannesburg (JNB20)</t>
-  </si>
-  <si>
-    <t>Cape Town (CPT20)</t>
-  </si>
-  <si>
-    <t>Johannesburg (JNB21)</t>
+    <t>Cape Town (CPT  20)</t>
+  </si>
+  <si>
+    <t>Johannesburg (JNB  20)</t>
+  </si>
+  <si>
+    <t>Johannesburg (JNB  21)</t>
   </si>
 </sst>
 </file>
@@ -1019,6 +1019,9 @@
     <xf numFmtId="164" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="17" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1078,9 +1081,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1364,60 +1364,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:16" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="55"/>
     </row>
     <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.5">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="62" t="s">
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="63"/>
+      <c r="P2" s="64"/>
     </row>
     <row r="3" spans="1:16" ht="43" x14ac:dyDescent="0.5">
-      <c r="A3" s="55"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1586,7 +1586,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1598,7 +1598,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>109</v>
       </c>
       <c r="B1" s="18" t="s">
@@ -1609,8 +1609,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="20" t="s">
@@ -1621,8 +1621,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="21" t="s">
         <v>33</v>
       </c>
@@ -1631,8 +1631,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="21" t="s">
         <v>34</v>
       </c>
@@ -1641,8 +1641,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A5" s="64"/>
-      <c r="B5" s="65" t="s">
+      <c r="A5" s="65"/>
+      <c r="B5" s="66" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -1653,8 +1653,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="21" t="s">
         <v>36</v>
       </c>
@@ -1663,18 +1663,18 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A7" s="64"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="52" t="s">
         <v>111</v>
       </c>
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A8" s="64"/>
-      <c r="B8" s="66" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="67" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="17" t="s">
@@ -1683,32 +1683,32 @@
       <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A9" s="64"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="17" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A10" s="64"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A11" s="64"/>
-      <c r="B11" s="66"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="17" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A12" s="64"/>
-      <c r="B12" s="66" t="s">
+      <c r="A12" s="65"/>
+      <c r="B12" s="67" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="17" t="s">
@@ -1717,8 +1717,8 @@
       <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A13" s="64"/>
-      <c r="B13" s="66"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="25" t="s">
         <v>45</v>
       </c>
@@ -1738,6 +1738,758 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46CF6CC-FED6-4037-BDB6-B1421048F8AA}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="24.8203125" customWidth="1"/>
+    <col min="2" max="2" width="28.5859375" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="22.5859375" customWidth="1"/>
+    <col min="5" max="5" width="29.52734375" customWidth="1"/>
+    <col min="6" max="6" width="23.76171875" customWidth="1"/>
+    <col min="7" max="7" width="39.41015625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+    </row>
+    <row r="2" spans="1:7" ht="86" x14ac:dyDescent="0.5">
+      <c r="A2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A3" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="19">
+        <v>42370</v>
+      </c>
+      <c r="C3" s="22">
+        <v>42006</v>
+      </c>
+      <c r="D3" s="22">
+        <v>42006</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="43">
+        <v>3</v>
+      </c>
+      <c r="G3" s="44">
+        <v>36924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A4" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="19">
+        <v>42370</v>
+      </c>
+      <c r="C4" s="22">
+        <v>42006</v>
+      </c>
+      <c r="D4" s="22">
+        <v>42006</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="43">
+        <v>3</v>
+      </c>
+      <c r="G4" s="44">
+        <v>36924</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A5" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="19">
+        <v>42370</v>
+      </c>
+      <c r="C5" s="22">
+        <v>42006</v>
+      </c>
+      <c r="D5" s="22">
+        <v>42006</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="43">
+        <v>3</v>
+      </c>
+      <c r="G5" s="44">
+        <v>36924</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A6" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="19">
+        <v>42370</v>
+      </c>
+      <c r="C6" s="22">
+        <v>42006</v>
+      </c>
+      <c r="D6" s="22">
+        <v>42006</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="43">
+        <v>3</v>
+      </c>
+      <c r="G6" s="44">
+        <v>36924</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A7" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="19">
+        <v>42370</v>
+      </c>
+      <c r="C7" s="22">
+        <v>42006</v>
+      </c>
+      <c r="D7" s="22">
+        <v>42006</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="43">
+        <v>3</v>
+      </c>
+      <c r="G7" s="45">
+        <v>36924</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A8" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="19">
+        <v>42370</v>
+      </c>
+      <c r="C8" s="22">
+        <v>42006</v>
+      </c>
+      <c r="D8" s="22">
+        <v>42006</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="43">
+        <v>3</v>
+      </c>
+      <c r="G8" s="45">
+        <v>36924</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A9" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="22">
+        <v>42006</v>
+      </c>
+      <c r="D9" s="22">
+        <v>42006</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A10" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="22">
+        <v>42006</v>
+      </c>
+      <c r="D10" s="49">
+        <v>42005</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A11" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="22">
+        <v>42006</v>
+      </c>
+      <c r="D11" s="49">
+        <v>42005</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="48">
+        <v>40544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+    </row>
+    <row r="13" spans="1:7" ht="86" x14ac:dyDescent="0.5">
+      <c r="A13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A14" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="19">
+        <v>42370</v>
+      </c>
+      <c r="C14" s="22">
+        <v>42006</v>
+      </c>
+      <c r="D14" s="22">
+        <v>42006</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="43">
+        <v>3</v>
+      </c>
+      <c r="G14" s="44">
+        <v>36924</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A15" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="19">
+        <v>42370</v>
+      </c>
+      <c r="C15" s="22">
+        <v>42006</v>
+      </c>
+      <c r="D15" s="22">
+        <v>42006</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="43">
+        <v>3</v>
+      </c>
+      <c r="G15" s="44">
+        <v>36924</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A16" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="19">
+        <v>42370</v>
+      </c>
+      <c r="C16" s="22">
+        <v>42006</v>
+      </c>
+      <c r="D16" s="22">
+        <v>42006</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="43">
+        <v>3</v>
+      </c>
+      <c r="G16" s="44">
+        <v>36924</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A17" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="19">
+        <v>42370</v>
+      </c>
+      <c r="C17" s="22">
+        <v>42006</v>
+      </c>
+      <c r="D17" s="22">
+        <v>42006</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="43">
+        <v>3</v>
+      </c>
+      <c r="G17" s="44">
+        <v>36924</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A18" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="19">
+        <v>42370</v>
+      </c>
+      <c r="C18" s="22">
+        <v>42006</v>
+      </c>
+      <c r="D18" s="22">
+        <v>42006</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="43">
+        <v>3</v>
+      </c>
+      <c r="G18" s="45">
+        <v>36924</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A19" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="19">
+        <v>42370</v>
+      </c>
+      <c r="C19" s="22">
+        <v>42006</v>
+      </c>
+      <c r="D19" s="22">
+        <v>42006</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="43">
+        <v>3</v>
+      </c>
+      <c r="G19" s="45">
+        <v>36924</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A20" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="22">
+        <v>42006</v>
+      </c>
+      <c r="D20" s="22">
+        <v>42006</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A21" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="22">
+        <v>42006</v>
+      </c>
+      <c r="D21" s="49">
+        <v>42005</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A22" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="22">
+        <v>42006</v>
+      </c>
+      <c r="D22" s="49">
+        <v>42005</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="48">
+        <v>40544</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+    </row>
+    <row r="24" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A25" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="19">
+        <v>42370</v>
+      </c>
+      <c r="C25" s="22">
+        <v>42006</v>
+      </c>
+      <c r="D25" s="22">
+        <v>42006</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="43">
+        <v>3</v>
+      </c>
+      <c r="G25" s="44">
+        <v>36924</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A26" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="19">
+        <v>42370</v>
+      </c>
+      <c r="C26" s="22">
+        <v>42006</v>
+      </c>
+      <c r="D26" s="22">
+        <v>42006</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="43">
+        <v>3</v>
+      </c>
+      <c r="G26" s="44">
+        <v>36924</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A27" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="19">
+        <v>42370</v>
+      </c>
+      <c r="C27" s="22">
+        <v>42006</v>
+      </c>
+      <c r="D27" s="22">
+        <v>42006</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="43">
+        <v>3</v>
+      </c>
+      <c r="G27" s="44">
+        <v>36924</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A28" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="19">
+        <v>42370</v>
+      </c>
+      <c r="C28" s="22">
+        <v>42006</v>
+      </c>
+      <c r="D28" s="22">
+        <v>42006</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="43">
+        <v>3</v>
+      </c>
+      <c r="G28" s="44">
+        <v>36924</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A29" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="19">
+        <v>42370</v>
+      </c>
+      <c r="C29" s="22">
+        <v>42006</v>
+      </c>
+      <c r="D29" s="22">
+        <v>42006</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="43">
+        <v>3</v>
+      </c>
+      <c r="G29" s="45">
+        <v>36924</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A30" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="19">
+        <v>42370</v>
+      </c>
+      <c r="C30" s="22">
+        <v>42006</v>
+      </c>
+      <c r="D30" s="22">
+        <v>42006</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="43">
+        <v>3</v>
+      </c>
+      <c r="G30" s="45">
+        <v>36924</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A31" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="22">
+        <v>42006</v>
+      </c>
+      <c r="D31" s="22">
+        <v>42006</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A32" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="22">
+        <v>42006</v>
+      </c>
+      <c r="D32" s="49">
+        <v>42005</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A33" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="22">
+        <v>42006</v>
+      </c>
+      <c r="D33" s="49">
+        <v>42005</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" s="48">
+        <v>40544</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A23:G23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C942CC7-50D8-4951-BAC9-A70D255278BD}">
   <dimension ref="A1:J35"/>
   <sheetViews>
@@ -1780,7 +2532,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -1812,7 +2564,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="68"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="29" t="s">
         <v>59</v>
       </c>
@@ -1842,7 +2594,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="68"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="29" t="s">
         <v>60</v>
       </c>
@@ -1872,7 +2624,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="72" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="68"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="29" t="s">
         <v>61</v>
       </c>
@@ -1902,7 +2654,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="57.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="68"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="29" t="s">
         <v>63</v>
       </c>
@@ -1932,7 +2684,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="68"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="29" t="s">
         <v>65</v>
       </c>
@@ -1962,7 +2714,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="68"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="29" t="s">
         <v>67</v>
       </c>
@@ -1992,7 +2744,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="69"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="35" t="s">
         <v>17</v>
       </c>
@@ -2022,7 +2774,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="68" t="s">
         <v>70</v>
       </c>
       <c r="B10" s="29" t="s">
@@ -2054,7 +2806,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="68"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="29" t="s">
         <v>71</v>
       </c>
@@ -2084,7 +2836,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="68"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="29" t="s">
         <v>73</v>
       </c>
@@ -2114,7 +2866,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="72" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="68"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="29" t="s">
         <v>61</v>
       </c>
@@ -2144,7 +2896,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="57.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="68"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="29" t="s">
         <v>63</v>
       </c>
@@ -2174,7 +2926,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="68"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="29" t="s">
         <v>65</v>
       </c>
@@ -2204,7 +2956,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="68"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="29" t="s">
         <v>67</v>
       </c>
@@ -2234,7 +2986,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="69"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="35" t="s">
         <v>17</v>
       </c>
@@ -2264,7 +3016,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="68" t="s">
         <v>76</v>
       </c>
       <c r="B18" s="29" t="s">
@@ -2296,7 +3048,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="68"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="29" t="s">
         <v>77</v>
       </c>
@@ -2326,7 +3078,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="68"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="29" t="s">
         <v>73</v>
       </c>
@@ -2356,7 +3108,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="72" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="68"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="29" t="s">
         <v>61</v>
       </c>
@@ -2386,7 +3138,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="57.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="68"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="29" t="s">
         <v>63</v>
       </c>
@@ -2416,7 +3168,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="68"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="29" t="s">
         <v>65</v>
       </c>
@@ -2446,7 +3198,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="68"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="29" t="s">
         <v>67</v>
       </c>
@@ -2476,7 +3228,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="69"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="35" t="s">
         <v>17</v>
       </c>
@@ -2506,7 +3258,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="68" t="s">
         <v>82</v>
       </c>
       <c r="B26" s="29" t="s">
@@ -2538,7 +3290,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="72" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="68"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="29" t="s">
         <v>61</v>
       </c>
@@ -2568,7 +3320,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="57.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="68"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="29" t="s">
         <v>63</v>
       </c>
@@ -2598,7 +3350,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="68"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="29" t="s">
         <v>65</v>
       </c>
@@ -2628,7 +3380,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="70"/>
+      <c r="A30" s="71"/>
       <c r="B30" s="38" t="s">
         <v>17</v>
       </c>
@@ -2658,7 +3410,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="68" t="s">
         <v>89</v>
       </c>
       <c r="B31" s="29" t="s">
@@ -2690,7 +3442,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="72" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="68"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="29" t="s">
         <v>61</v>
       </c>
@@ -2720,7 +3472,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="57.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="68"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="29" t="s">
         <v>63</v>
       </c>
@@ -2750,7 +3502,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="68"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="29" t="s">
         <v>65</v>
       </c>
@@ -2780,7 +3532,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="70"/>
+      <c r="A35" s="71"/>
       <c r="B35" s="38" t="s">
         <v>17</v>
       </c>
@@ -2819,755 +3571,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46CF6CC-FED6-4037-BDB6-B1421048F8AA}">
-  <dimension ref="A1:G33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="2" max="2" width="28.5859375" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="22.5859375" customWidth="1"/>
-    <col min="5" max="5" width="39.9375" customWidth="1"/>
-    <col min="6" max="6" width="51.52734375" customWidth="1"/>
-    <col min="7" max="7" width="93.703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="71" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-    </row>
-    <row r="2" spans="1:7" ht="86" x14ac:dyDescent="0.5">
-      <c r="A2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A3" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="19">
-        <v>42370</v>
-      </c>
-      <c r="C3" s="22">
-        <v>42006</v>
-      </c>
-      <c r="D3" s="22">
-        <v>42006</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="43">
-        <v>3</v>
-      </c>
-      <c r="G3" s="44">
-        <v>36924</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A4" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="19">
-        <v>42370</v>
-      </c>
-      <c r="C4" s="22">
-        <v>42006</v>
-      </c>
-      <c r="D4" s="22">
-        <v>42006</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="43">
-        <v>3</v>
-      </c>
-      <c r="G4" s="44">
-        <v>36924</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A5" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="19">
-        <v>42370</v>
-      </c>
-      <c r="C5" s="22">
-        <v>42006</v>
-      </c>
-      <c r="D5" s="22">
-        <v>42006</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="43">
-        <v>3</v>
-      </c>
-      <c r="G5" s="44">
-        <v>36924</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A6" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="19">
-        <v>42370</v>
-      </c>
-      <c r="C6" s="22">
-        <v>42006</v>
-      </c>
-      <c r="D6" s="22">
-        <v>42006</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="43">
-        <v>3</v>
-      </c>
-      <c r="G6" s="44">
-        <v>36924</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A7" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="19">
-        <v>42370</v>
-      </c>
-      <c r="C7" s="22">
-        <v>42006</v>
-      </c>
-      <c r="D7" s="22">
-        <v>42006</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="43">
-        <v>3</v>
-      </c>
-      <c r="G7" s="45">
-        <v>36924</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A8" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="19">
-        <v>42370</v>
-      </c>
-      <c r="C8" s="22">
-        <v>42006</v>
-      </c>
-      <c r="D8" s="22">
-        <v>42006</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="43">
-        <v>3</v>
-      </c>
-      <c r="G8" s="45">
-        <v>36924</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A9" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="22">
-        <v>42006</v>
-      </c>
-      <c r="D9" s="22">
-        <v>42006</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A10" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="22">
-        <v>42006</v>
-      </c>
-      <c r="D10" s="49">
-        <v>42005</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A11" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="22">
-        <v>42006</v>
-      </c>
-      <c r="D11" s="49">
-        <v>42005</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11" s="48">
-        <v>40544</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="71" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-    </row>
-    <row r="13" spans="1:7" ht="86" x14ac:dyDescent="0.5">
-      <c r="A13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A14" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="19">
-        <v>42370</v>
-      </c>
-      <c r="C14" s="22">
-        <v>42006</v>
-      </c>
-      <c r="D14" s="22">
-        <v>42006</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="43">
-        <v>3</v>
-      </c>
-      <c r="G14" s="44">
-        <v>36924</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A15" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="19">
-        <v>42370</v>
-      </c>
-      <c r="C15" s="22">
-        <v>42006</v>
-      </c>
-      <c r="D15" s="22">
-        <v>42006</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="43">
-        <v>3</v>
-      </c>
-      <c r="G15" s="44">
-        <v>36924</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A16" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="19">
-        <v>42370</v>
-      </c>
-      <c r="C16" s="22">
-        <v>42006</v>
-      </c>
-      <c r="D16" s="22">
-        <v>42006</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="43">
-        <v>3</v>
-      </c>
-      <c r="G16" s="44">
-        <v>36924</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A17" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="19">
-        <v>42370</v>
-      </c>
-      <c r="C17" s="22">
-        <v>42006</v>
-      </c>
-      <c r="D17" s="22">
-        <v>42006</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="43">
-        <v>3</v>
-      </c>
-      <c r="G17" s="44">
-        <v>36924</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A18" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="19">
-        <v>42370</v>
-      </c>
-      <c r="C18" s="22">
-        <v>42006</v>
-      </c>
-      <c r="D18" s="22">
-        <v>42006</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="43">
-        <v>3</v>
-      </c>
-      <c r="G18" s="45">
-        <v>36924</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A19" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="19">
-        <v>42370</v>
-      </c>
-      <c r="C19" s="22">
-        <v>42006</v>
-      </c>
-      <c r="D19" s="22">
-        <v>42006</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="43">
-        <v>3</v>
-      </c>
-      <c r="G19" s="45">
-        <v>36924</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A20" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="22">
-        <v>42006</v>
-      </c>
-      <c r="D20" s="22">
-        <v>42006</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A21" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="22">
-        <v>42006</v>
-      </c>
-      <c r="D21" s="49">
-        <v>42005</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A22" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="22">
-        <v>42006</v>
-      </c>
-      <c r="D22" s="49">
-        <v>42005</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" s="48">
-        <v>40544</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-    </row>
-    <row r="24" spans="1:7" ht="86" x14ac:dyDescent="0.5">
-      <c r="A24" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A25" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="19">
-        <v>42370</v>
-      </c>
-      <c r="C25" s="22">
-        <v>42006</v>
-      </c>
-      <c r="D25" s="22">
-        <v>42006</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="43">
-        <v>3</v>
-      </c>
-      <c r="G25" s="44">
-        <v>36924</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A26" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="19">
-        <v>42370</v>
-      </c>
-      <c r="C26" s="22">
-        <v>42006</v>
-      </c>
-      <c r="D26" s="22">
-        <v>42006</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="43">
-        <v>3</v>
-      </c>
-      <c r="G26" s="44">
-        <v>36924</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A27" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="19">
-        <v>42370</v>
-      </c>
-      <c r="C27" s="22">
-        <v>42006</v>
-      </c>
-      <c r="D27" s="22">
-        <v>42006</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="43">
-        <v>3</v>
-      </c>
-      <c r="G27" s="44">
-        <v>36924</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A28" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="19">
-        <v>42370</v>
-      </c>
-      <c r="C28" s="22">
-        <v>42006</v>
-      </c>
-      <c r="D28" s="22">
-        <v>42006</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" s="43">
-        <v>3</v>
-      </c>
-      <c r="G28" s="44">
-        <v>36924</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A29" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="19">
-        <v>42370</v>
-      </c>
-      <c r="C29" s="22">
-        <v>42006</v>
-      </c>
-      <c r="D29" s="22">
-        <v>42006</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" s="43">
-        <v>3</v>
-      </c>
-      <c r="G29" s="45">
-        <v>36924</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A30" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="19">
-        <v>42370</v>
-      </c>
-      <c r="C30" s="22">
-        <v>42006</v>
-      </c>
-      <c r="D30" s="22">
-        <v>42006</v>
-      </c>
-      <c r="E30" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="43">
-        <v>3</v>
-      </c>
-      <c r="G30" s="45">
-        <v>36924</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A31" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="22">
-        <v>42006</v>
-      </c>
-      <c r="D31" s="22">
-        <v>42006</v>
-      </c>
-      <c r="E31" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="G31" s="48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A32" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="22">
-        <v>42006</v>
-      </c>
-      <c r="D32" s="49">
-        <v>42005</v>
-      </c>
-      <c r="E32" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="G32" s="48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A33" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="22">
-        <v>42006</v>
-      </c>
-      <c r="D33" s="49">
-        <v>42005</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="G33" s="48">
-        <v>40544</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A23:G23"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>